--- a/medicine/Mort/Cimetière_de_Bonnieux/Cimetière_de_Bonnieux.xlsx
+++ b/medicine/Mort/Cimetière_de_Bonnieux/Cimetière_de_Bonnieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonnieux</t>
+          <t>Cimetière_de_Bonnieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Bonnieux est le cimetière communal de la commune de Bonnieux dans le Vaucluse. Il est connu pour abriter la sépulture de l'acteur Maurice Ronet[1] qui possédait une résidence dans la commune.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Bonnieux est le cimetière communal de la commune de Bonnieux dans le Vaucluse. Il est connu pour abriter la sépulture de l'acteur Maurice Ronet qui possédait une résidence dans la commune.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonnieux</t>
+          <t>Cimetière_de_Bonnieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière situé en hauteur offre un immense panorama remarquable sur la campagne[2] environnante du Luberon et au loin vers le mont Ventoux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière situé en hauteur offre un immense panorama remarquable sur la campagne environnante du Luberon et au loin vers le mont Ventoux.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bonnieux</t>
+          <t>Cimetière_de_Bonnieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sara Alexander (1942-2009), chanteuse israélienne (urne au columbarium)
 Jean-Paul Clébert (1926-2011), écrivain
